--- a/NEW HR/ROLLE, CARIZA PENANO.xlsx
+++ b/NEW HR/ROLLE, CARIZA PENANO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>12/26,27,28,29</t>
+  </si>
+  <si>
+    <t>QL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/7,10/2023 </t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>7/5-6/2023</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2326,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2661,12 +2673,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,7 +2843,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.167000000000002</v>
+        <v>15.167000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2841,7 +2853,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.167000000000002</v>
+        <v>21.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3161,13 +3173,15 @@
         <v>44958</v>
       </c>
       <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -3179,13 +3193,15 @@
         <v>44986</v>
       </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
@@ -3193,15 +3209,19 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>45017</v>
+      </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
@@ -3209,15 +3229,19 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="40">
+        <v>45047</v>
+      </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
@@ -3225,8 +3249,12 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
@@ -3238,13 +3266,19 @@
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="39"/>
+      <c r="D30" s="39">
+        <v>2</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13" t="str">
@@ -3254,10 +3288,14 @@
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="40">
+        <v>45108</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -4857,20 +4895,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
